--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,19 +40,22 @@
     <t>name</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>falling</t>
   </si>
   <si>
     <t>fuck</t>
@@ -61,49 +64,46 @@
     <t>drop</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>stop</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
-    <t>buying</t>
+    <t>co</t>
   </si>
   <si>
     <t>prices</t>
   </si>
   <si>
-    <t>co</t>
+    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
@@ -118,94 +118,109 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>please</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>stay</t>
   </si>
   <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>need</t>
   </si>
 </sst>
 </file>
@@ -563,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,7 +589,7 @@
         <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,13 +647,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -674,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -682,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8421052631578947</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L4">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -724,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -732,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.815068493150685</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C5">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D5">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -750,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8108108108108109</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,13 +821,13 @@
         <v>36</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -824,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -832,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7777777777777778</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -882,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6410256410256411</v>
+        <v>0.65</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,13 +921,13 @@
         <v>38</v>
       </c>
       <c r="K8">
-        <v>0.856396866840731</v>
+        <v>0.8381201044386423</v>
       </c>
       <c r="L8">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="M8">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6101694915254238</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K9">
-        <v>0.828125</v>
+        <v>0.8125</v>
       </c>
       <c r="L9">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="M9">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5882352941176471</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K10">
-        <v>0.8207547169811321</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L10">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1024,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1032,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5717054263565892</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C11">
-        <v>295</v>
+        <v>112</v>
       </c>
       <c r="D11">
-        <v>295</v>
+        <v>112</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1050,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K11">
-        <v>0.8170731707317073</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1082,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5636363636363636</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1100,28 +1115,28 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K12">
-        <v>0.8125</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L12">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="M12">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>30</v>
@@ -1132,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.544973544973545</v>
+        <v>0.5794573643410853</v>
       </c>
       <c r="C13">
-        <v>103</v>
+        <v>299</v>
       </c>
       <c r="D13">
-        <v>103</v>
+        <v>299</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>86</v>
+        <v>217</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1174,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1182,13 +1197,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4765100671140939</v>
+        <v>0.5167785234899329</v>
       </c>
       <c r="C14">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D14">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1200,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K14">
-        <v>0.7906976744186046</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L14">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="M14">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1224,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1232,13 +1247,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4545454545454545</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1250,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K15">
-        <v>0.7872340425531915</v>
+        <v>0.7734375</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1274,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1282,13 +1297,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4464285714285715</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1300,19 +1315,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K16">
-        <v>0.7816901408450704</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L16">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1324,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1332,13 +1347,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4266666666666667</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1350,19 +1365,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>0.7777777777777778</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1374,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1382,13 +1397,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4111111111111111</v>
+        <v>0.3293650793650794</v>
       </c>
       <c r="C18">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="D18">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1400,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K18">
-        <v>0.7708333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1424,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1432,13 +1447,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2857142857142857</v>
+        <v>0.3222222222222222</v>
       </c>
       <c r="C19">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1450,19 +1465,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K19">
-        <v>0.7301587301587301</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1474,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1482,37 +1497,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2064343163538874</v>
+        <v>0.2446236559139785</v>
       </c>
       <c r="C20">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D20">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K20">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1524,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>119</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1532,13 +1547,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.14</v>
+        <v>0.1366666666666667</v>
       </c>
       <c r="C21">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1550,19 +1565,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K21">
-        <v>0.6285714285714286</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M21">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1574,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1582,37 +1597,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.08873720136518772</v>
+        <v>0.04111362900615086</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>267</v>
+        <v>2962</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K22">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1624,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1632,37 +1647,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.03370786516853932</v>
+        <v>0.03889369057908384</v>
       </c>
       <c r="C23">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D23">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E23">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F23">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K23">
-        <v>0.6170212765957447</v>
+        <v>0.6794117647058824</v>
       </c>
       <c r="L23">
-        <v>58</v>
+        <v>231</v>
       </c>
       <c r="M23">
-        <v>58</v>
+        <v>231</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1674,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>36</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1682,37 +1697,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03111831442463533</v>
+        <v>0.0304093567251462</v>
       </c>
       <c r="C24">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="E24">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="F24">
-        <v>0.8100000000000001</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2989</v>
+        <v>829</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K24">
-        <v>0.6153846153846154</v>
+        <v>0.66</v>
       </c>
       <c r="L24">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M24">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1724,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1732,13 +1747,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02496467263306642</v>
+        <v>0.02877358490566038</v>
       </c>
       <c r="C25">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D25">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E25">
         <v>0.27</v>
@@ -1750,19 +1765,19 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>2070</v>
+        <v>2059</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K25">
-        <v>0.6101694915254238</v>
+        <v>0.6292134831460674</v>
       </c>
       <c r="L25">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="M25">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1774,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1782,13 +1797,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.008002560819462228</v>
+        <v>0.009315772566655958</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D26">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="E26">
         <v>0.75</v>
@@ -1800,19 +1815,19 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>3099</v>
+        <v>3084</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K26">
-        <v>0.606694560669456</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L26">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="M26">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1824,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>94</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1832,13 +1847,13 @@
         <v>57</v>
       </c>
       <c r="K27">
-        <v>0.5294117647058824</v>
+        <v>0.6169491525423729</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1850,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>24</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1858,13 +1873,13 @@
         <v>58</v>
       </c>
       <c r="K28">
-        <v>0.5168539325842697</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L28">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M28">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1876,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1884,13 +1899,13 @@
         <v>59</v>
       </c>
       <c r="K29">
-        <v>0.3333333333333333</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1902,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>52</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1910,13 +1925,13 @@
         <v>60</v>
       </c>
       <c r="K30">
-        <v>0.09090909090909091</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1928,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>280</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1936,25 +1951,25 @@
         <v>61</v>
       </c>
       <c r="K31">
-        <v>0.08045977011494253</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L31">
         <v>28</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>320</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1962,25 +1977,25 @@
         <v>62</v>
       </c>
       <c r="K32">
-        <v>0.07004830917874397</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>385</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1988,51 +2003,181 @@
         <v>63</v>
       </c>
       <c r="K33">
-        <v>0.02777777777777778</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="L33">
         <v>25</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N33">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>875</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K34">
+        <v>0.3835616438356164</v>
+      </c>
+      <c r="L34">
+        <v>28</v>
+      </c>
+      <c r="M34">
+        <v>28</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K35">
+        <v>0.1373626373626374</v>
+      </c>
+      <c r="L35">
+        <v>25</v>
+      </c>
+      <c r="M35">
+        <v>28</v>
+      </c>
+      <c r="N35">
+        <v>0.89</v>
+      </c>
+      <c r="O35">
+        <v>0.11</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K36">
+        <v>0.09134615384615384</v>
+      </c>
+      <c r="L36">
+        <v>38</v>
+      </c>
+      <c r="M36">
+        <v>38</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K37">
+        <v>0.08794788273615635</v>
+      </c>
+      <c r="L37">
+        <v>27</v>
+      </c>
+      <c r="M37">
+        <v>28</v>
+      </c>
+      <c r="N37">
+        <v>0.96</v>
+      </c>
+      <c r="O37">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K38">
+        <v>0.08650519031141868</v>
+      </c>
+      <c r="L38">
+        <v>25</v>
+      </c>
+      <c r="M38">
+        <v>25</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K34">
-        <v>0.02424433249370277</v>
-      </c>
-      <c r="L34">
-        <v>77</v>
-      </c>
-      <c r="M34">
-        <v>102</v>
-      </c>
-      <c r="N34">
+      <c r="K39">
+        <v>0.02774274905422447</v>
+      </c>
+      <c r="L39">
+        <v>88</v>
+      </c>
+      <c r="M39">
+        <v>117</v>
+      </c>
+      <c r="N39">
         <v>0.75</v>
       </c>
-      <c r="O34">
+      <c r="O39">
         <v>0.25</v>
       </c>
-      <c r="P34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>3099</v>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>3084</v>
       </c>
     </row>
   </sheetData>
